--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_7_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2238638.843814204</v>
+        <v>2242189.403601598</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256412</v>
+        <v>6239134.533256415</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069181</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>233.1020523603602</v>
       </c>
       <c r="E2" t="n">
-        <v>233.1020523603607</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888683</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.32882004050031</v>
+        <v>47.14167849255895</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>147.285295254119</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>62.17792974248621</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>207.0351854764311</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>258.2668337170626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>290.6252023436521</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>80.88877949312959</v>
+        <v>155.2114886365811</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710073</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G11" t="n">
         <v>411.0203559212046</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>8.166397531732278</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>103.3159968049587</v>
       </c>
       <c r="H13" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,10 +1584,10 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710073</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040289</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>132.3408700536376</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T16" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>240.2067367169242</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.0203559212046</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0700504016732</v>
+        <v>32.76530276776105</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>119.9635181175557</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>119.7401400319047</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>77.7068761674024</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>226.1224112633607</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T28" t="n">
-        <v>103.2961918465117</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>144.7803414255492</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T29" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367003</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803228</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
-        <v>159.6461437356193</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
         <v>286.2142514133935</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
         <v>219.7379838856521</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>181.7860373207883</v>
+        <v>158.4928132020625</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.0203559212043</v>
+        <v>411.0203559212046</v>
       </c>
       <c r="H35" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>90.63993244261223</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T38" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>245.2790677208495</v>
       </c>
       <c r="X40" t="n">
-        <v>8.700547538811971</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.71347105747184</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -3954,19 +3954,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>26.83369495939513</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,10 +3994,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H44" t="n">
-        <v>295.6178616169272</v>
+        <v>295.617861616927</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T44" t="n">
         <v>204.3497241367009</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>130.4482050673214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4312,7 +4312,7 @@
         <v>1271.815289262514</v>
       </c>
       <c r="D2" t="n">
-        <v>1271.815289262514</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
         <v>1036.358670716696</v>
@@ -4327,22 +4327,22 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,10 +4354,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834948</v>
@@ -4406,7 +4406,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4433,13 +4433,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>680.5111271432434</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>999.4901647174274</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>613.7019121191831</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>202.7160073295756</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2403.136924224011</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2149.375138862102</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2149.375138862102</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2149.375138862102</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2149.375138862102</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>2149.375138862102</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4658,10 +4658,10 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.8558756644252</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>370.8558756644252</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8558756644252</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
         <v>222.942782082032</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>370.8558756644252</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>370.8558756644252</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>370.8558756644252</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.6874762441716</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>754.1609496773547</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>368.3726970791104</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>361.427196329907</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>347.5037922684979</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4849,7 +4849,7 @@
         <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>722.2873163082934</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>617.0062271882081</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>327.5890571512475</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5032,7 +5032,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G11" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H11" t="n">
         <v>141.5554198924156</v>
@@ -5041,25 +5041,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L11" t="n">
-        <v>1935.127558962002</v>
+        <v>1354.237307536703</v>
       </c>
       <c r="M11" t="n">
-        <v>2451.514037751685</v>
+        <v>1870.623786326387</v>
       </c>
       <c r="N11" t="n">
-        <v>2980.869998012461</v>
+        <v>2832.953201755027</v>
       </c>
       <c r="O11" t="n">
-        <v>3520.693250262004</v>
+        <v>3696.465942464177</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4395.779705678574</v>
       </c>
       <c r="Q11" t="n">
         <v>4667.940766252041</v>
@@ -5120,19 +5120,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>737.3814165211091</v>
+        <v>663.8164859557327</v>
       </c>
       <c r="C13" t="n">
-        <v>568.4452335932023</v>
+        <v>494.8803030278258</v>
       </c>
       <c r="D13" t="n">
-        <v>418.3285941808665</v>
+        <v>494.8803030278258</v>
       </c>
       <c r="E13" t="n">
-        <v>418.3285941808665</v>
+        <v>346.9672094454327</v>
       </c>
       <c r="F13" t="n">
-        <v>410.0797077851773</v>
+        <v>200.0772619475223</v>
       </c>
       <c r="G13" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
         <v>95.71766921524075</v>
@@ -5202,16 +5202,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5232,19 +5232,19 @@
         <v>1691.121090492214</v>
       </c>
       <c r="U13" t="n">
-        <v>1691.121090492214</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V13" t="n">
-        <v>1436.436602286327</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="W13" t="n">
-        <v>1147.019432249366</v>
+        <v>1112.59861599728</v>
       </c>
       <c r="X13" t="n">
-        <v>919.0298813513489</v>
+        <v>884.6090650992628</v>
       </c>
       <c r="Y13" t="n">
-        <v>919.0298813513489</v>
+        <v>663.8164859557327</v>
       </c>
     </row>
     <row r="14">
@@ -5260,19 +5260,19 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036597</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155742</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
-        <v>141.5554198924154</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I14" t="n">
         <v>95.71766921524075</v>
@@ -5287,10 +5287,10 @@
         <v>1611.438070502395</v>
       </c>
       <c r="M14" t="n">
-        <v>2127.824549292079</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N14" t="n">
-        <v>2657.180509552855</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O14" t="n">
         <v>3520.693250262004</v>
@@ -5357,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>379.5119551464023</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C16" t="n">
-        <v>245.8343086275765</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="D16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="E16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F16" t="n">
-        <v>95.71766921524075</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G16" t="n">
         <v>95.71766921524075</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5463,25 +5463,25 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.77411916334</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U16" t="n">
-        <v>1117.71125522491</v>
+        <v>1386.141051772508</v>
       </c>
       <c r="V16" t="n">
-        <v>1117.71125522491</v>
+        <v>1131.456563566621</v>
       </c>
       <c r="W16" t="n">
-        <v>828.2940851879498</v>
+        <v>842.0393935296605</v>
       </c>
       <c r="X16" t="n">
-        <v>600.3045342899325</v>
+        <v>614.0498426316432</v>
       </c>
       <c r="Y16" t="n">
-        <v>379.5119551464023</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="17">
@@ -5497,46 +5497,46 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D17" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F17" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K17" t="n">
-        <v>597.7080858612028</v>
+        <v>827.387460541654</v>
       </c>
       <c r="L17" t="n">
-        <v>1446.817951496195</v>
+        <v>1676.497326176647</v>
       </c>
       <c r="M17" t="n">
-        <v>2408.222828443783</v>
+        <v>2192.88380496633</v>
       </c>
       <c r="N17" t="n">
-        <v>3370.552243872424</v>
+        <v>2722.239765227107</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.525067779331</v>
+        <v>3585.752505936257</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.25810990396</v>
+        <v>4285.066269150653</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R17" t="n">
         <v>4785.883460762037</v>
@@ -5594,19 +5594,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439725</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508.7493060675617</v>
+        <v>227.483532919606</v>
       </c>
       <c r="C19" t="n">
-        <v>508.7493060675617</v>
+        <v>227.483532919606</v>
       </c>
       <c r="D19" t="n">
-        <v>508.7493060675617</v>
+        <v>227.483532919606</v>
       </c>
       <c r="E19" t="n">
-        <v>508.7493060675617</v>
+        <v>227.483532919606</v>
       </c>
       <c r="F19" t="n">
-        <v>508.7493060675617</v>
+        <v>227.483532919606</v>
       </c>
       <c r="G19" t="n">
-        <v>341.001780409306</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="H19" t="n">
         <v>194.3872674976251</v>
@@ -5676,16 +5676,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O19" t="n">
         <v>1611.825859961355</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1791.903379146857</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T19" t="n">
-        <v>1569.9458196664</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U19" t="n">
-        <v>1280.840515208427</v>
+        <v>1402.015786034241</v>
       </c>
       <c r="V19" t="n">
-        <v>1026.15602700254</v>
+        <v>1147.331297828354</v>
       </c>
       <c r="W19" t="n">
-        <v>736.7388569655791</v>
+        <v>857.9141277913932</v>
       </c>
       <c r="X19" t="n">
-        <v>508.7493060675617</v>
+        <v>629.9245768933758</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.7493060675617</v>
+        <v>409.1319977498457</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2379.333770138674</v>
+        <v>2379.333770138673</v>
       </c>
       <c r="C20" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198261</v>
       </c>
       <c r="D20" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E20" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036598</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K20" t="n">
-        <v>1086.017693327009</v>
+        <v>855.1603485090773</v>
       </c>
       <c r="L20" t="n">
-        <v>1521.642956557056</v>
+        <v>1704.27021414407</v>
       </c>
       <c r="M20" t="n">
-        <v>2038.029435346739</v>
+        <v>2665.675091091658</v>
       </c>
       <c r="N20" t="n">
-        <v>2657.180509552855</v>
+        <v>3628.004506520298</v>
       </c>
       <c r="O20" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P20" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R20" t="n">
         <v>4785.883460762037</v>
@@ -5785,19 +5785,19 @@
         <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
-        <v>4213.370243053372</v>
+        <v>4213.370243053371</v>
       </c>
       <c r="V20" t="n">
         <v>3882.307355709801</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439686</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178606</v>
       </c>
       <c r="Y20" t="n">
-        <v>2765.933610202796</v>
+        <v>2765.933610202795</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5913,16 +5913,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
         <v>1611.825859961355</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.551093895499</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>954.8666056896121</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W22" t="n">
-        <v>665.4494356526516</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X22" t="n">
-        <v>437.4598847546342</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y22" t="n">
-        <v>216.6673056111041</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="23">
@@ -5974,43 +5974,43 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612028</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L23" t="n">
-        <v>1446.817951496195</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M23" t="n">
-        <v>2408.222828443783</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N23" t="n">
-        <v>3370.552243872424</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.525067779331</v>
+        <v>3839.273971351772</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6068,25 +6068,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629254</v>
+        <v>184.4590143936093</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111818</v>
+        <v>414.2869325418658</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433829</v>
+        <v>769.6414721740671</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075619</v>
+        <v>1203.680327106303</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890737</v>
+        <v>1663.615543921421</v>
       </c>
       <c r="O24" t="n">
-        <v>2136.002693439725</v>
+        <v>2062.146616470409</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.525948037006</v>
+        <v>2362.66987106769</v>
       </c>
       <c r="Q24" t="n">
         <v>2587.498588679581</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.71766921524075</v>
+        <v>738.5463968580359</v>
       </c>
       <c r="C25" t="n">
-        <v>95.71766921524075</v>
+        <v>569.610213930129</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="F25" t="n">
-        <v>95.71766921524075</v>
+        <v>419.4935745177933</v>
       </c>
       <c r="G25" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I25" t="n">
         <v>95.71766921524075</v>
@@ -6150,16 +6150,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
         <v>1611.825859961355</v>
@@ -6174,25 +6174,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1720.613957833929</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.656398353472</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U25" t="n">
-        <v>1270.249922329876</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.565434123989</v>
+        <v>1658.394161766784</v>
       </c>
       <c r="W25" t="n">
-        <v>726.1482640870279</v>
+        <v>1368.976991729823</v>
       </c>
       <c r="X25" t="n">
-        <v>498.1587131890105</v>
+        <v>1140.987440831806</v>
       </c>
       <c r="Y25" t="n">
-        <v>277.3661340454805</v>
+        <v>920.1948616882756</v>
       </c>
     </row>
     <row r="26">
@@ -6217,7 +6217,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
         <v>141.5554198924156</v>
@@ -6226,28 +6226,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496195</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M26" t="n">
-        <v>2408.222828443783</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N26" t="n">
-        <v>3370.552243872424</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,28 +6305,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>216.6338377265986</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>446.461755874855</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>801.8162955070561</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1235.855150439292</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>1695.79036725441</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
-        <v>2094.321439803398</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P27" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q27" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R27" t="n">
         <v>2587.498588679581</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>854.9993882778166</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C28" t="n">
-        <v>854.9993882778166</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D28" t="n">
-        <v>704.8827488654808</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E28" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6387,16 +6387,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
         <v>1611.825859961355</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S28" t="n">
-        <v>1913.078649972671</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T28" t="n">
-        <v>1808.739062248921</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="U28" t="n">
-        <v>1808.739062248921</v>
+        <v>1482.531350046624</v>
       </c>
       <c r="V28" t="n">
-        <v>1554.054574043034</v>
+        <v>1482.531350046624</v>
       </c>
       <c r="W28" t="n">
-        <v>1264.637404006074</v>
+        <v>1193.114180009664</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.647853108056</v>
+        <v>965.1246291116463</v>
       </c>
       <c r="Y28" t="n">
-        <v>1036.647853108056</v>
+        <v>744.3320499681162</v>
       </c>
     </row>
     <row r="29">
@@ -6457,7 +6457,7 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
@@ -6466,22 +6466,22 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
-        <v>1614.223600516548</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M29" t="n">
-        <v>2575.628477464136</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N29" t="n">
-        <v>3537.957892892777</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O29" t="n">
-        <v>4024.478454151808</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P29" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q29" t="n">
         <v>4667.940766252041</v>
@@ -6493,7 +6493,7 @@
         <v>4673.322552666526</v>
       </c>
       <c r="T29" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902183</v>
       </c>
       <c r="U29" t="n">
         <v>4213.370243053372</v>
@@ -6542,19 +6542,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439725</v>
@@ -6624,16 +6624,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O31" t="n">
         <v>1611.825859961355</v>
@@ -6645,28 +6645,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S31" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W31" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X31" t="n">
-        <v>498.1587131890105</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="32">
@@ -6694,34 +6694,34 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924155</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J32" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K32" t="n">
-        <v>918.6120443066559</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L32" t="n">
-        <v>1767.721909941648</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M32" t="n">
-        <v>2284.108388731332</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N32" t="n">
-        <v>3246.437804159972</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O32" t="n">
-        <v>4109.950544869122</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P32" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q32" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R32" t="n">
         <v>4785.883460762037</v>
@@ -6779,28 +6779,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>216.6338377265986</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>446.461755874855</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>801.8162955070561</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>1235.855150439292</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>1695.79036725441</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.321439803398</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R33" t="n">
         <v>2587.498588679581</v>
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>264.6538521431477</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
         <v>95.71766921524075</v>
@@ -6861,16 +6861,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
         <v>1611.825859961355</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1402.015786034241</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>1147.331297828354</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W34" t="n">
-        <v>857.914127791393</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X34" t="n">
-        <v>629.9245768933756</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y34" t="n">
-        <v>446.3023169733874</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>855.3313972036597</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924156</v>
@@ -6937,28 +6937,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1354.237307536702</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2315.64218448429</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N35" t="n">
-        <v>2844.998144745066</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
-        <v>3585.752505936257</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4285.066269150654</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R35" t="n">
         <v>4785.883460762037</v>
@@ -7016,28 +7016,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>216.6338377265986</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
-        <v>446.461755874855</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>801.8162955070561</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1235.855150439292</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
-        <v>1695.79036725441</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
-        <v>2094.321439803398</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P36" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q36" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R36" t="n">
         <v>2587.498588679581</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.0504151839953</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>561.4949278682253</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>411.3782884558896</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>263.4651948734965</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
         <v>95.71766921524075</v>
@@ -7098,16 +7098,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
         <v>1611.825859961355</v>
@@ -7119,28 +7119,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R37" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1821.238811302082</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T37" t="n">
-        <v>1599.281251821625</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U37" t="n">
-        <v>1310.175947363652</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>1055.491459157765</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>1055.491459157765</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>1055.491459157765</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>834.698880014235</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7183,10 +7183,10 @@
         <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2038.029435346739</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N38" t="n">
-        <v>2657.180509552855</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O38" t="n">
         <v>3520.693250262004</v>
@@ -7253,19 +7253,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439725</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>825.5985825778617</v>
+        <v>708.2749519650746</v>
       </c>
       <c r="C40" t="n">
-        <v>656.6623996499549</v>
+        <v>539.3387690371677</v>
       </c>
       <c r="D40" t="n">
-        <v>656.6623996499549</v>
+        <v>389.222129624832</v>
       </c>
       <c r="E40" t="n">
-        <v>508.7493060675617</v>
+        <v>389.222129624832</v>
       </c>
       <c r="F40" t="n">
-        <v>508.7493060675617</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>242.3321821269216</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7335,16 +7335,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O40" t="n">
         <v>1611.825859961355</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1821.238811302082</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T40" t="n">
-        <v>1599.281251821625</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U40" t="n">
-        <v>1599.281251821625</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V40" t="n">
-        <v>1344.596763615738</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W40" t="n">
-        <v>1055.179593578778</v>
+        <v>929.0675311086047</v>
       </c>
       <c r="X40" t="n">
-        <v>1046.391161721392</v>
+        <v>929.0675311086047</v>
       </c>
       <c r="Y40" t="n">
-        <v>825.5985825778617</v>
+        <v>708.2749519650746</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>765.1137348815558</v>
+        <v>918.6120443066561</v>
       </c>
       <c r="L41" t="n">
-        <v>1200.738998111603</v>
+        <v>1767.721909941649</v>
       </c>
       <c r="M41" t="n">
-        <v>2162.143875059191</v>
+        <v>2284.108388731333</v>
       </c>
       <c r="N41" t="n">
-        <v>3124.473290487831</v>
+        <v>3246.437804159973</v>
       </c>
       <c r="O41" t="n">
-        <v>3610.993851746863</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4490.683586993751</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7490,22 +7490,22 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
         <v>2436.525948037006</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>410.3551423714068</v>
+        <v>776.3859648110968</v>
       </c>
       <c r="C43" t="n">
-        <v>410.3551423714068</v>
+        <v>607.4497818831899</v>
       </c>
       <c r="D43" t="n">
-        <v>410.3551423714068</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E43" t="n">
-        <v>410.3551423714068</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F43" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G43" t="n">
-        <v>95.71766921524075</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H43" t="n">
-        <v>95.71766921524075</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I43" t="n">
         <v>95.71766921524075</v>
@@ -7572,16 +7572,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
         <v>1611.825859961355</v>
@@ -7593,28 +7593,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.656398353472</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.551093895499</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="V43" t="n">
-        <v>954.8666056896121</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="W43" t="n">
-        <v>665.4494356526516</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="X43" t="n">
-        <v>437.4598847546342</v>
+        <v>1178.827008784867</v>
       </c>
       <c r="Y43" t="n">
-        <v>410.3551423714068</v>
+        <v>958.0344296413365</v>
       </c>
     </row>
     <row r="44">
@@ -7630,16 +7630,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D44" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E44" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F44" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155742</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7648,28 +7648,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J44" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K44" t="n">
-        <v>918.6120443066559</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L44" t="n">
-        <v>1354.237307536702</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M44" t="n">
-        <v>2315.64218448429</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N44" t="n">
-        <v>3251.012327070182</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O44" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P44" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7684,13 +7684,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V44" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W44" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X44" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y44" t="n">
         <v>2765.933610202796</v>
@@ -7727,25 +7727,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L45" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N45" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P45" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q45" t="n">
         <v>2587.498588679581</v>
@@ -7809,16 +7809,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O46" t="n">
         <v>1611.825859961355</v>
@@ -7830,28 +7830,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V46" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W46" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X46" t="n">
-        <v>498.1587131890105</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y46" t="n">
-        <v>277.3661340454805</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>275.0442842992665</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>53.84110201061765</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>34.76681671831611</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>90.7021352983225</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,25 +9166,25 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>231.999368364092</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>260.0527905534084</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>90.7021352983229</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,13 +9637,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>449.5135334928325</v>
@@ -9652,16 +9652,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>260.0527905534096</v>
+        <v>230.5859793988977</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880424</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>74.6020979488037</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>260.0527905534096</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>32.4998215484741</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,25 +10114,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>25.23975550835297</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10354,25 +10354,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>259.7987504703956</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>4.62073021233266</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>32.4998215484741</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10594,13 +10594,13 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O35" t="n">
-        <v>256.8018181132923</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>32.4998215484741</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>90.7021352983229</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>230.5859793988984</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>4.620730212331097</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>410.1153356819348</v>
+        <v>316.5995337026472</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>137.254650491199</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>62.75405359671443</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -23472,10 +23472,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>34.90595104499027</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>46.00751469646923</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>133.3047476339121</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>70.5765270997985</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60.09184015003255</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24147,7 +24147,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>88.36317423427077</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>60.09184015003274</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>116.4417920391404</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>141.4339099878443</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24858,7 +24858,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>60.09184015003282</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>36.79861603130647</v>
+        <v>60.09184015003234</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>76.6068886560156</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>41.24393061574148</v>
       </c>
       <c r="X40" t="n">
-        <v>217.0091078502252</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.90200196074052</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>191.7509583926997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.09184015003279</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839562.2517651004</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839562.2517651003</v>
+        <v>839562.2517651002</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>839562.2517651004</v>
+        <v>839562.2517651003</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839562.2517651002</v>
+        <v>839562.2517651003</v>
       </c>
     </row>
     <row r="16">
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516048</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516047</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516047</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516048</v>
-      </c>
       <c r="E2" t="n">
-        <v>574938.4879923548</v>
+        <v>574938.4879923551</v>
       </c>
       <c r="F2" t="n">
-        <v>574938.487992355</v>
+        <v>574938.4879923554</v>
       </c>
       <c r="G2" t="n">
         <v>574938.487992355</v>
@@ -26334,28 +26334,28 @@
         <v>574938.4879923553</v>
       </c>
       <c r="I2" t="n">
-        <v>574938.4879923551</v>
+        <v>574938.487992355</v>
       </c>
       <c r="J2" t="n">
         <v>574938.4879923551</v>
       </c>
       <c r="K2" t="n">
+        <v>574938.487992355</v>
+      </c>
+      <c r="L2" t="n">
         <v>574938.4879923553</v>
       </c>
-      <c r="L2" t="n">
-        <v>574938.4879923551</v>
-      </c>
       <c r="M2" t="n">
-        <v>574938.4879923546</v>
+        <v>574938.4879923548</v>
       </c>
       <c r="N2" t="n">
-        <v>574938.4879923549</v>
+        <v>574938.4879923548</v>
       </c>
       <c r="O2" t="n">
-        <v>574938.4879923553</v>
+        <v>574938.487992355</v>
       </c>
       <c r="P2" t="n">
-        <v>574938.4879923549</v>
+        <v>574938.4879923548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.096751828</v>
+        <v>708251.0967518282</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="C4" t="n">
         <v>201064.5059277315</v>
@@ -26426,40 +26426,40 @@
         <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
-        <v>27510.00885503009</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="F4" t="n">
-        <v>27510.00885503009</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="G4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="H4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="I4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="J4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="K4" t="n">
-        <v>27510.00885503009</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="L4" t="n">
-        <v>27510.00885503011</v>
+        <v>27510.00885503007</v>
       </c>
       <c r="M4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="N4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503008</v>
       </c>
       <c r="O4" t="n">
         <v>27510.00885503008</v>
       </c>
       <c r="P4" t="n">
-        <v>27510.0088550301</v>
+        <v>27510.00885503008</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-278636.1800540807</v>
+        <v>-278636.1800540806</v>
       </c>
       <c r="C6" t="n">
+        <v>311331.6991604639</v>
+      </c>
+      <c r="D6" t="n">
         <v>311331.6991604638</v>
       </c>
-      <c r="D6" t="n">
-        <v>311331.6991604639</v>
-      </c>
       <c r="E6" t="n">
-        <v>-257490.9101499949</v>
+        <v>-256860.3889209146</v>
       </c>
       <c r="F6" t="n">
-        <v>450760.1866018333</v>
+        <v>451390.7078309138</v>
       </c>
       <c r="G6" t="n">
-        <v>450760.1866018333</v>
+        <v>451390.7078309135</v>
       </c>
       <c r="H6" t="n">
-        <v>450760.1866018336</v>
+        <v>451390.7078309137</v>
       </c>
       <c r="I6" t="n">
-        <v>450760.1866018334</v>
+        <v>451390.7078309135</v>
       </c>
       <c r="J6" t="n">
-        <v>274336.9674092404</v>
+        <v>274967.4886383207</v>
       </c>
       <c r="K6" t="n">
-        <v>450760.1866018336</v>
+        <v>451390.7078309135</v>
       </c>
       <c r="L6" t="n">
-        <v>450760.1866018334</v>
+        <v>451390.7078309137</v>
       </c>
       <c r="M6" t="n">
-        <v>320629.9466324234</v>
+        <v>321260.4678615038</v>
       </c>
       <c r="N6" t="n">
-        <v>450760.1866018332</v>
+        <v>451390.7078309132</v>
       </c>
       <c r="O6" t="n">
-        <v>450760.1866018336</v>
+        <v>451390.7078309135</v>
       </c>
       <c r="P6" t="n">
-        <v>450760.1866018332</v>
+        <v>451390.7078309132</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731068</v>
+        <v>687.498757273107</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>121.5809892603228</v>
       </c>
       <c r="E2" t="n">
-        <v>148.8283177119011</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2558333115945</v>
+        <v>171.4429748595358</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>266.498874766676</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>154.2703906151716</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>5.110353473587793</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>166.0457989735916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>107.006058053945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>33.29757042070503</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>171.2488638306984</v>
+        <v>96.92615468724688</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I20" t="n">
         <v>165.0965164000028</v>
@@ -32475,31 +32475,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R20" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
@@ -32548,7 +32548,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690591</v>
@@ -32557,34 +32557,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N22" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279595</v>
@@ -32654,13 +32654,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I23" t="n">
         <v>165.0965164000028</v>
@@ -32712,31 +32712,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R23" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
@@ -32785,7 +32785,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690591</v>
@@ -32794,34 +32794,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N25" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279595</v>
@@ -32891,13 +32891,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I26" t="n">
         <v>165.0965164000028</v>
@@ -32949,31 +32949,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R26" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
@@ -33022,7 +33022,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690591</v>
@@ -33031,34 +33031,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N28" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279595</v>
@@ -33128,13 +33128,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I29" t="n">
         <v>165.0965164000028</v>
@@ -33186,31 +33186,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R29" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
@@ -33259,7 +33259,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690591</v>
@@ -33268,34 +33268,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N31" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279595</v>
@@ -33365,13 +33365,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I32" t="n">
         <v>165.0965164000028</v>
@@ -33423,31 +33423,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R32" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
@@ -33496,7 +33496,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690591</v>
@@ -33505,34 +33505,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N34" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279595</v>
@@ -33602,13 +33602,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I35" t="n">
         <v>165.0965164000028</v>
@@ -33660,31 +33660,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R35" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
@@ -33733,7 +33733,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690591</v>
@@ -33742,34 +33742,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N37" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279595</v>
@@ -33839,13 +33839,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I38" t="n">
         <v>165.0965164000028</v>
@@ -33897,31 +33897,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R38" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
@@ -33970,7 +33970,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690591</v>
@@ -33979,34 +33979,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N40" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279595</v>
@@ -34076,13 +34076,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I41" t="n">
         <v>165.0965164000028</v>
@@ -34134,31 +34134,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R41" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
@@ -34207,7 +34207,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690591</v>
@@ -34216,34 +34216,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N43" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279595</v>
@@ -34313,13 +34313,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I44" t="n">
         <v>165.0965164000028</v>
@@ -34371,31 +34371,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R44" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
@@ -34444,7 +34444,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690591</v>
@@ -34453,34 +34453,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N46" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279595</v>
@@ -34550,13 +34550,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328939</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O11" t="n">
-        <v>545.276012373276</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370094</v>
+        <v>274.910162195421</v>
       </c>
       <c r="R11" t="n">
         <v>119.1340348585825</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L14" t="n">
-        <v>530.727653712511</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M14" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901623998</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P14" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585825</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K17" t="n">
-        <v>324.6451466339469</v>
+        <v>556.6445149980391</v>
       </c>
       <c r="L17" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M17" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O17" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051117</v>
+        <v>584.6979371873555</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N20" t="n">
-        <v>625.4051254607227</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O20" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P20" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R20" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106822</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389735</v>
@@ -36296,10 +36296,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L23" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N23" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O23" t="n">
-        <v>751.487700916068</v>
+        <v>722.0208897615562</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511966</v>
+        <v>89.63772240239243</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.4976168106822</v>
+        <v>227.0997147594859</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389735</v>
@@ -36533,10 +36533,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L26" t="n">
-        <v>857.686732964639</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M26" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N26" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O26" t="n">
-        <v>751.487700916068</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>122.1375439508665</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
       </c>
       <c r="R27" t="n">
-        <v>42.1022764003303</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389735</v>
@@ -36770,10 +36770,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K29" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L29" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M29" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N29" t="n">
-        <v>972.049914574384</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O29" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>409.8185859372711</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q29" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R29" t="n">
         <v>119.1340348585825</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389735</v>
@@ -37007,10 +37007,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L32" t="n">
-        <v>857.686732964639</v>
+        <v>699.8242688845843</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N32" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P32" t="n">
-        <v>389.1995606412508</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q32" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>122.1375439508665</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
         <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
-        <v>42.1022764003303</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389735</v>
@@ -37244,10 +37244,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141885</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M35" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>534.7029901623998</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O35" t="n">
-        <v>748.2367284759506</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>122.1375439508665</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
       </c>
       <c r="R36" t="n">
-        <v>42.1022764003303</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389735</v>
@@ -37481,10 +37481,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141885</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N38" t="n">
-        <v>625.4051254607227</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
         <v>119.1340348585825</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
         <v>152.4976168106822</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389735</v>
@@ -37718,10 +37718,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L41" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N41" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P41" t="n">
-        <v>615.1648098278165</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370094</v>
+        <v>244.764075689436</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>378.1609409763607</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389735</v>
@@ -37955,10 +37955,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>944.8183258443346</v>
+        <v>851.3025238650473</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389735</v>
@@ -38192,10 +38192,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
